--- a/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Metropolitana.xlsx
+++ b/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Metropolitana.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R9b1e1fcb8bc9486d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R7c6f4688ea4e4121"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -234,6 +234,1926 @@
     </x:row>
     <x:row r="4">
       <x:c s="5" t="d">
+        <x:v>2013-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1593901</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1701211.116095</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20449</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6283779.2127243</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>600836.926258</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="5" t="d">
+        <x:v>2013-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1595262</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1684162.5379078</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20510</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6331650.8444661</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>606882.104969</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c s="5" t="d">
+        <x:v>2013-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1606966</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1744231.2234739</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20616</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6470043.2500485</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>626712.105914</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c s="5" t="d">
+        <x:v>2013-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1618854</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1709822.1493803</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20719</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6848961.9012983</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>603942.534555</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="5" t="d">
+        <x:v>2013-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1627731</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1728702.9831022</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20816</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6959836.6342717</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>683688.273856</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="5" t="d">
+        <x:v>2013-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1638288</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1769862.0483571</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>20976</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6818744.3398169</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>685026.813803</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="5" t="d">
+        <x:v>2013-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1648590</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1744467.650161</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21100</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6790110.1793364</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>635049.425485</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="5" t="d">
+        <x:v>2013-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1661405</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1730996.1370532</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21253</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6637071.7053121</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>662304.583159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="5" t="d">
+        <x:v>2013-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1671300</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1746490.5107329</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21345</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6822121.663434</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>627223.926385</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="5" t="d">
+        <x:v>2013-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1686476</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1722613.3842722</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21544</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6887795.3542981</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>677050.296854</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="5" t="d">
+        <x:v>2013-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1700046</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1717813.0611589</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21732</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6778832.7722252</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>694796.623848</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="5" t="d">
+        <x:v>2013-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1711450</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1777133.9563843</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>21874</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6538781.3599707</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>689834.770726</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="5" t="d">
+        <x:v>2014-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1720675</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1790463.1383224</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22033</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6747245.2748604</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>745614.748596</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="5" t="d">
+        <x:v>2014-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1725393</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1761767.9438284</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22129</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6816832.9885218</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>748576.175631</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="5" t="d">
+        <x:v>2014-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1738297</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1791523.4968305</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22325</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6770140.0422844</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>678718.345112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="5" t="d">
+        <x:v>2014-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1750064</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1788268.0867071</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22485</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7180552.1554369</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>760001.272726</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="5" t="d">
+        <x:v>2014-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1749445</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1823211.4445181</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22668</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7276696.4474589</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>807070.397284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="5" t="d">
+        <x:v>2014-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1762319</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1871613.9975032</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>22856</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7226172.9699422</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>743518.713315</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="5" t="d">
+        <x:v>2014-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1775632</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1770801.3486144</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23036</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7300991.8458065</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>757309.831689</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="5" t="d">
+        <x:v>2014-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1787045</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1756406.7195263</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23277</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7393380.9562228</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>786737.136415</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="5" t="d">
+        <x:v>2014-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1797939</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1766135.165604</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23515</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7861036.8148415</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>803625.843139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="5" t="d">
+        <x:v>2014-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1810454</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1759904.8479199</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23701</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7984067.7919919</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>804944.803953</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="5" t="d">
+        <x:v>2014-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1822847</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1766602.0457026</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>23871</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8339456.4277994</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>831417.59082</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="5" t="d">
+        <x:v>2014-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1834054</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1861555.8920707</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24010</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7963010.0347355</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>872136.643411</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="5" t="d">
+        <x:v>2015-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1843956</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1876683.0820903</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24186</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8278852.0950963</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>909247.201178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="5" t="d">
+        <x:v>2015-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1851591</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1864418.5885932</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24339</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8333345.0639303</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>897274.920982</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="5" t="d">
+        <x:v>2015-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1865040</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1882222.7756412</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24534</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8377042.176612</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>854823.861283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="5" t="d">
+        <x:v>2015-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1878293</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1894260.7317708</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24728</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8738052.3058071</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>872952.990454</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="5" t="d">
+        <x:v>2015-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1891745</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1914315.0923174</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>24934</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9920560.7320927</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>927820.024896</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="5" t="d">
+        <x:v>2015-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1906288</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1939897.867445</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25159</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9931577.2834373</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>872034.081934</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="5" t="d">
+        <x:v>2015-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1921462</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1900095.5800895</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25280</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9941888.2966376</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>950297.109931</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="5" t="d">
+        <x:v>2015-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1937140</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1896640.3901519</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25496</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10352728.275141</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>870265.655256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="5" t="d">
+        <x:v>2015-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1950492</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1909857.1235411</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25722</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10766641.772762</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>960994.840903</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="5" t="d">
+        <x:v>2015-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1965787</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1896115.7771019</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>25861</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10647436.592823</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>983361.718855</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="5" t="d">
+        <x:v>2015-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1982296</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1896287.6090831</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26114</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10697302.13016</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>918081.774765</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="5" t="d">
+        <x:v>2015-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1995338</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1953070.6739274</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26317</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11441556.284454</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1044469.53473</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="5" t="d">
+        <x:v>2016-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2006627</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1980426.2061863</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26514</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11171284.281134</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1072813.859906</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="5" t="d">
+        <x:v>2016-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2017603</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1944192.1082026</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26675</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11174203.171733</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>978340.993392</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="5" t="d">
+        <x:v>2016-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2033086</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1925590.5552618</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>26987</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11607224.941156</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1024056.691579</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="5" t="d">
+        <x:v>2016-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2047303</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1935331.6566898</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27253</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11735021.653359</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1051256.312371</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="5" t="d">
+        <x:v>2016-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2063504</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1949807.2186208</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27506</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12270528.918635</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1069290.354227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="5" t="d">
+        <x:v>2016-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2076145</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1949220.129213</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27702</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12161073.132914</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1073852.902123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="5" t="d">
+        <x:v>2016-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2090462</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1901926.1615944</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>27959</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12486513.238134</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1087195.915143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="5" t="d">
+        <x:v>2016-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2108112</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1858140.9798872</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28181</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12854632.713885</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1053173.57663</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="5" t="d">
+        <x:v>2016-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2122788</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1869965.3785017</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28320</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12423277.628389</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1113189.433823</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="5" t="d">
+        <x:v>2016-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2137541</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1851150.4459998</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28583</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12462329.779764</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1137689.590276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="5" t="d">
+        <x:v>2016-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2148299</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1849526.6788529</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28634</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12837103.163721</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1082440.92866</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="5" t="d">
+        <x:v>2016-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2161330</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1941508.8438216</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28765</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12933715.255797</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1181218.642722</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c s="5" t="d">
+        <x:v>2017-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2172019</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1945615.5111861</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>28886</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13995048.888769</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1157529.975921</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c s="5" t="d">
+        <x:v>2017-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2178005</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1912765.9674647</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29010</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14614556.849121</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1143384.190203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c s="5" t="d">
+        <x:v>2017-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2195958</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1922019.7351101</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29221</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14920952.776154</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1165805.254461</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c s="5" t="d">
+        <x:v>2017-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2203712</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1960683.6200737</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29335</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14393131.677484</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1239232.160094</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c s="5" t="d">
+        <x:v>2017-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2221123</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1971149.1727846</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29523</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13294330.635843</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1249450.731608</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c s="5" t="d">
+        <x:v>2017-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2231554</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1988891.358948</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>29673</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13105556.866747</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1282797.75491</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c s="5" t="d">
+        <x:v>2017-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2245582</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1930396.1488464</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>30400</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12399619.157006</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1203507.286743</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c s="5" t="d">
+        <x:v>2017-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2259299</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1905734.3761835</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>31248</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11951054.675595</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1276071.638468</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c s="5" t="d">
+        <x:v>2017-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2275997</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1919304.0081168</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32002</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11730274.198425</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1379167.207771</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c s="5" t="d">
+        <x:v>2017-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2290348</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1899275.1712503</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>32694</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11410337.209182</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1301857.896913</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c s="5" t="d">
+        <x:v>2017-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2307795</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1867207.2612736</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33345</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11133725.748807</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1349687.525573</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c s="5" t="d">
+        <x:v>2017-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2321634</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1965259.1149574</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>33778</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10625634.312925</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1459602.545105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c s="5" t="d">
+        <x:v>2018-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2335773</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1955307.9875009</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>34501</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10397042.035448</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1445113.779251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c s="5" t="d">
+        <x:v>2018-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2345569</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1938725.7826263</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35009</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10255462.769716</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1437339.94398</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c s="5" t="d">
+        <x:v>2018-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2362505</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2011187.8229061</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35555</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10258488.51312</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1495840.376</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c s="5" t="d">
+        <x:v>2018-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2378623</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1993123.6590367</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>35868</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10286928.056234</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1467396.00077</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c s="5" t="d">
+        <x:v>2018-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2394191</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2009982.9909347</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36232</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9937076.3524508</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1537169.110481</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c s="5" t="d">
+        <x:v>2018-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2409148</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2014447.3962969</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36521</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10138190.935379</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1586772.464901</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c s="5" t="d">
+        <x:v>2018-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2424746</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1970951.9091797</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>36759</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9485651.4592072</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1514392.309228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c s="5" t="d">
+        <x:v>2018-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2444159</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1937277.6580377</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37093</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9683223.3980535</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1587491.234396</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c s="5" t="d">
+        <x:v>2018-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2447953</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1973367.1045485</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37195</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8909199.5629789</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1620498.139711</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c s="5" t="d">
+        <x:v>2018-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2478132</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1927115.1095163</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37511</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9151362.7732665</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1612773.65449</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c s="5" t="d">
+        <x:v>2018-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2504077</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1888165.655999</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37797</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8638775.0130962</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1677658.485698</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c s="5" t="d">
+        <x:v>2018-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2513371</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1980146.0744526</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>37958</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8739225.9200168</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1746254.340099</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c s="5" t="d">
+        <x:v>2019-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2530322</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1972868.3540814</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38192</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8503454.768983</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1709817.227132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c s="5" t="d">
+        <x:v>2019-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2543404</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1961943.1275043</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38335</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8528152.3418025</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1712872.999501</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c s="5" t="d">
+        <x:v>2019-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2563552</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1995760.9591746</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38652</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8637847.8936665</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1751337.59137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c s="5" t="d">
+        <x:v>2019-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2582484</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1990025.5310886</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>38981</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8727359.7394628</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1813457.920255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c s="5" t="d">
+        <x:v>2019-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2602846</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2010944.7598048</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39262</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8699037.3383678</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1807146.643987</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c s="5" t="d">
+        <x:v>2019-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2620205</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2016805.935668</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39539</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8232695.9618857</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1806628.555596</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c s="5" t="d">
+        <x:v>2019-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2642872</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1982450.5271371</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>39892</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8521058.0298556</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1736902.241302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c s="5" t="d">
+        <x:v>2019-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2660097</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1984010.5659229</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>40124</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8114032.6191805</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1826289.499343</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c s="5" t="d">
+        <x:v>2019-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2672277</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1982643.3932882</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42340</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7910089.4569674</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1742385.889597</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c s="5" t="d">
+        <x:v>2019-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2687429</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1988318.0015907</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>42599</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7921317.2097232</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1868365.341325</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c s="5" t="d">
+        <x:v>2019-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2693685</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2061820.0466402</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>43584</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9133838.1032947</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1907277.825997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c s="5" t="d">
+        <x:v>2019-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2708472</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2160548.8090617</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>44664</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10869091.726356</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1920816.804833</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c s="5" t="d">
+        <x:v>2020-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2720429</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2109973.8267104</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>45491</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10756593.746213</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2030371.052036</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c s="5" t="d">
+        <x:v>2020-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2727195</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2109862.1163217</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46105</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10158394.213642</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2010653.947846</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c s="5" t="d">
+        <x:v>2020-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2733552</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2187796.9247971</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47081</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10312686.405747</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2068496.00927</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c s="5" t="d">
+        <x:v>2020-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2725535</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2374970.8979635</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48017</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10772705.342795</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2314511.66506</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c s="5" t="d">
+        <x:v>2020-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2721185</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2492211.9325591</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48747</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10653163.980121</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2542295.455008</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c s="5" t="d">
+        <x:v>2020-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2718037</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2619687.1217459</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49599</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11237159.769148</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2528420.834954</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c s="5" t="d">
+        <x:v>2020-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2728959</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2702780.857745</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50647</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11221001.701621</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2710497.521602</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c s="5" t="d">
+        <x:v>2020-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2808161</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2782031.3703551</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52220</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11219354.744025</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4731838.777214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c s="5" t="d">
+        <x:v>2020-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2874046</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2923901.8059888</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53567</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11942111.242294</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4633405.262195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c s="5" t="d">
+        <x:v>2020-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2922383</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2963647.6835637</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>54704</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12117330.996801</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4487256.291014</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c s="5" t="d">
+        <x:v>2020-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2976576</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2873201.9340537</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>56212</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12179327.249199</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>4074365.145778</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c s="5" t="d">
+        <x:v>2020-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3044017</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2905737.8146137</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57489</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12284907.010349</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5711001.850341</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c s="5" t="d">
         <x:v>2021-01-01T00:00:00.000</x:v>
       </x:c>
       <x:c s="11" t="n">
@@ -252,7 +2172,7 @@
         <x:v>5462679.964014</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="101">
       <x:c s="5" t="d">
         <x:v>2021-02-01T00:00:00.000</x:v>
       </x:c>
@@ -272,7 +2192,7 @@
         <x:v>5088497.529012</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="102">
       <x:c s="5" t="d">
         <x:v>2021-03-01T00:00:00.000</x:v>
       </x:c>
@@ -292,7 +2212,7 @@
         <x:v>4875561.568491</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="103">
       <x:c s="5" t="d">
         <x:v>2021-04-01T00:00:00.000</x:v>
       </x:c>
@@ -312,7 +2232,7 @@
         <x:v>5106883.696048</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="104">
       <x:c s="5" t="d">
         <x:v>2021-05-01T00:00:00.000</x:v>
       </x:c>
@@ -332,7 +2252,7 @@
         <x:v>6738787.937633</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="105">
       <x:c s="5" t="d">
         <x:v>2021-06-01T00:00:00.000</x:v>
       </x:c>
@@ -352,7 +2272,7 @@
         <x:v>6492529.236436</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="106">
       <x:c s="5" t="d">
         <x:v>2021-07-01T00:00:00.000</x:v>
       </x:c>
@@ -372,7 +2292,7 @@
         <x:v>6457650.722678</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="107">
       <x:c s="5" t="d">
         <x:v>2021-08-01T00:00:00.000</x:v>
       </x:c>
@@ -392,7 +2312,7 @@
         <x:v>6187562.800909</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="108">
       <x:c s="5" t="d">
         <x:v>2021-09-01T00:00:00.000</x:v>
       </x:c>
@@ -412,7 +2332,7 @@
         <x:v>6128417.996077</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="109">
       <x:c s="5" t="d">
         <x:v>2021-10-01T00:00:00.000</x:v>
       </x:c>
@@ -432,7 +2352,7 @@
         <x:v>6015966.956594</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="110">
       <x:c s="5" t="d">
         <x:v>2021-11-01T00:00:00.000</x:v>
       </x:c>
@@ -452,7 +2372,7 @@
         <x:v>5971714.100583</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
+    <x:row r="111">
       <x:c s="5" t="d">
         <x:v>2021-12-01T00:00:00.000</x:v>
       </x:c>
@@ -472,7 +2392,7 @@
         <x:v>6079585.401935</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
+    <x:row r="112">
       <x:c s="5" t="d">
         <x:v>2022-01-01T00:00:00.000</x:v>
       </x:c>
@@ -492,7 +2412,7 @@
         <x:v>5575917.965745</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
+    <x:row r="113">
       <x:c s="5" t="d">
         <x:v>2022-02-01T00:00:00.000</x:v>
       </x:c>
@@ -512,7 +2432,7 @@
         <x:v>5291340.88125</x:v>
       </x:c>
     </x:row>
-    <x:row r="18">
+    <x:row r="114">
       <x:c s="5" t="d">
         <x:v>2022-03-01T00:00:00.000</x:v>
       </x:c>
@@ -532,7 +2452,7 @@
         <x:v>5069646.782262</x:v>
       </x:c>
     </x:row>
-    <x:row r="19">
+    <x:row r="115">
       <x:c s="5" t="d">
         <x:v>2022-04-01T00:00:00.000</x:v>
       </x:c>
@@ -552,7 +2472,7 @@
         <x:v>4959278.501219</x:v>
       </x:c>
     </x:row>
-    <x:row r="20">
+    <x:row r="116">
       <x:c s="5" t="d">
         <x:v>2022-05-01T00:00:00.000</x:v>
       </x:c>
@@ -572,7 +2492,7 @@
         <x:v>4769093.909124</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
+    <x:row r="117">
       <x:c s="5" t="d">
         <x:v>2022-06-01T00:00:00.000</x:v>
       </x:c>
@@ -592,7 +2512,7 @@
         <x:v>4588404.107154</x:v>
       </x:c>
     </x:row>
-    <x:row r="22">
+    <x:row r="118">
       <x:c s="5" t="d">
         <x:v>2022-07-01T00:00:00.000</x:v>
       </x:c>
@@ -612,7 +2532,7 @@
         <x:v>4419443.801454</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
+    <x:row r="119">
       <x:c s="5" t="d">
         <x:v>2022-08-01T00:00:00.000</x:v>
       </x:c>
@@ -632,7 +2552,7 @@
         <x:v>4284937.102211</x:v>
       </x:c>
     </x:row>
-    <x:row r="24">
+    <x:row r="120">
       <x:c s="5" t="d">
         <x:v>2022-09-01T00:00:00.000</x:v>
       </x:c>
@@ -652,7 +2572,7 @@
         <x:v>4253809.916791</x:v>
       </x:c>
     </x:row>
-    <x:row r="25">
+    <x:row r="121">
       <x:c s="5" t="d">
         <x:v>2022-10-01T00:00:00.000</x:v>
       </x:c>
@@ -672,7 +2592,7 @@
         <x:v>4151742.13374</x:v>
       </x:c>
     </x:row>
-    <x:row r="26">
+    <x:row r="122">
       <x:c s="5" t="d">
         <x:v>2022-11-01T00:00:00.000</x:v>
       </x:c>
@@ -692,7 +2612,7 @@
         <x:v>3968034.456526</x:v>
       </x:c>
     </x:row>
-    <x:row r="27">
+    <x:row r="123">
       <x:c s="5" t="d">
         <x:v>2022-12-01T00:00:00.000</x:v>
       </x:c>
@@ -712,7 +2632,7 @@
         <x:v>4068156.624177</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
+    <x:row r="124">
       <x:c s="5" t="d">
         <x:v>2023-01-01T00:00:00.000</x:v>
       </x:c>
@@ -732,7 +2652,7 @@
         <x:v>3914594.063181</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
+    <x:row r="125">
       <x:c s="5" t="d">
         <x:v>2023-02-01T00:00:00.000</x:v>
       </x:c>
@@ -752,7 +2672,7 @@
         <x:v>3833009.338929</x:v>
       </x:c>
     </x:row>
-    <x:row r="30">
+    <x:row r="126">
       <x:c s="5" t="d">
         <x:v>2023-03-01T00:00:00.000</x:v>
       </x:c>
@@ -772,7 +2692,7 @@
         <x:v>3859973.882239</x:v>
       </x:c>
     </x:row>
-    <x:row r="31">
+    <x:row r="127">
       <x:c s="5" t="d">
         <x:v>2023-04-01T00:00:00.000</x:v>
       </x:c>
@@ -792,7 +2712,7 @@
         <x:v>3867294.161877</x:v>
       </x:c>
     </x:row>
-    <x:row r="32">
+    <x:row r="128">
       <x:c s="5" t="d">
         <x:v>2023-05-01T00:00:00.000</x:v>
       </x:c>
@@ -812,7 +2732,7 @@
         <x:v>3699846.52323</x:v>
       </x:c>
     </x:row>
-    <x:row r="33">
+    <x:row r="129">
       <x:c s="5" t="d">
         <x:v>2023-06-01T00:00:00.000</x:v>
       </x:c>
@@ -832,7 +2752,7 @@
         <x:v>3765896.849565</x:v>
       </x:c>
     </x:row>
-    <x:row r="34">
+    <x:row r="130">
       <x:c s="5" t="d">
         <x:v>2023-07-01T00:00:00.000</x:v>
       </x:c>
@@ -852,7 +2772,7 @@
         <x:v>3594919.802775</x:v>
       </x:c>
     </x:row>
-    <x:row r="35">
+    <x:row r="131">
       <x:c s="5" t="d">
         <x:v>2023-08-01T00:00:00.000</x:v>
       </x:c>
@@ -872,7 +2792,7 @@
         <x:v>3659253.348551</x:v>
       </x:c>
     </x:row>
-    <x:row r="36">
+    <x:row r="132">
       <x:c s="5" t="d">
         <x:v>2023-09-01T00:00:00.000</x:v>
       </x:c>
@@ -892,7 +2812,7 @@
         <x:v>3731844.147059</x:v>
       </x:c>
     </x:row>
-    <x:row r="37">
+    <x:row r="133">
       <x:c s="5" t="d">
         <x:v>2023-10-01T00:00:00.000</x:v>
       </x:c>
@@ -912,7 +2832,7 @@
         <x:v>3647699.081098</x:v>
       </x:c>
     </x:row>
-    <x:row r="38">
+    <x:row r="134">
       <x:c s="5" t="d">
         <x:v>2023-11-01T00:00:00.000</x:v>
       </x:c>
@@ -932,7 +2852,7 @@
         <x:v>3678749.816036</x:v>
       </x:c>
     </x:row>
-    <x:row r="39">
+    <x:row r="135">
       <x:c s="5" t="d">
         <x:v>2023-12-01T00:00:00.000</x:v>
       </x:c>
@@ -952,7 +2872,7 @@
         <x:v>3878935.998077</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
+    <x:row r="136">
       <x:c s="5" t="d">
         <x:v>2024-01-01T00:00:00.000</x:v>
       </x:c>
@@ -972,7 +2892,7 @@
         <x:v>3798505.917678</x:v>
       </x:c>
     </x:row>
-    <x:row r="41">
+    <x:row r="137">
       <x:c s="5" t="d">
         <x:v>2024-02-01T00:00:00.000</x:v>
       </x:c>
@@ -992,7 +2912,7 @@
         <x:v>3825832.197058</x:v>
       </x:c>
     </x:row>
-    <x:row r="42">
+    <x:row r="138">
       <x:c s="5" t="d">
         <x:v>2024-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1012,7 +2932,7 @@
         <x:v>3874924.633555</x:v>
       </x:c>
     </x:row>
-    <x:row r="43">
+    <x:row r="139">
       <x:c s="5" t="d">
         <x:v>2024-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1032,7 +2952,7 @@
         <x:v>3757100.842155</x:v>
       </x:c>
     </x:row>
-    <x:row r="44">
+    <x:row r="140">
       <x:c s="5" t="d">
         <x:v>2024-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1052,7 +2972,7 @@
         <x:v>3862857.544995</x:v>
       </x:c>
     </x:row>
-    <x:row r="45">
+    <x:row r="141">
       <x:c s="5" t="d">
         <x:v>2024-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1072,7 +2992,7 @@
         <x:v>3878752.573311</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
+    <x:row r="142">
       <x:c s="5" t="d">
         <x:v>2024-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1092,7 +3012,7 @@
         <x:v>3805719.044402</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
+    <x:row r="143">
       <x:c s="5" t="d">
         <x:v>2024-08-01T00:00:00.000</x:v>
       </x:c>
